--- a/man/completed sheets/19.10.15/Oliver_Earl_Timesheet.xlsx
+++ b/man/completed sheets/19.10.15/Oliver_Earl_Timesheet.xlsx
@@ -468,7 +468,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="68.5703125" customWidth="1"/>
   </cols>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8">
-        <v>42030</v>
+        <v>42303</v>
       </c>
       <c r="G1" s="4" t="str">
         <f>"Total hours accounted this week: " &amp;TEXT(I1, "hh:mm")</f>
